--- a/websiteautomation/ExcelData/RM-ck-sku-config.xlsx
+++ b/websiteautomation/ExcelData/RM-ck-sku-config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
   <si>
     <t>net_wt</t>
   </si>
@@ -128,14 +128,910 @@
   </si>
   <si>
     <t>Amritsari Fish</t>
+  </si>
+  <si>
+    <t>Elastic Query</t>
+  </si>
+  <si>
+    <r>
+      <t>"https://plan-es1.licious.app/_sql?sql="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>+URLEncoder.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>encode</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <color rgb="FF3933FF"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>"select sum(quantity_to_produce) from production-plan-cluster where product_id in ('pr_3rkjm1v51mm') and ck_id='ck_001' and production_date='2018-10-11'"</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <t>"https://plan-es1.licious.app/_sql?sql="+URLEncoder.encode("select sum(quantity_to_produce) from production-plan-cluster where product_id in ('pr_8izjlf6xn0k') and ck_id='ck_001' and production_date='2018-10-11'"),</t>
+  </si>
+  <si>
+    <r>
+      <t>"https://plan-es1.licious.app/_sql?sql="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>+URLEncoder.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>encode</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <color rgb="FF3933FF"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>"select sum(quantity_to_produce) from brining-plan-cluster where product_id in ('pr_785jd3c1us3') and ck_id='ck_001' and production_date='2018-10-11'"</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"https://plan-es1.licious.app/_sql?sql="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>+URLEncoder.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>encode</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <color rgb="FF3933FF"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>"select sum(quantity_to_produce) from brining-plan-cluster where product_id in ('pr_ntcjmw1avau') and ck_id='ck_001' and production_date='2018-10-11'"</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"https://plan-es1.licious.app/_sql?sql="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>+URLEncoder.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>encode</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <color rgb="FF3933FF"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>"select sum(quantity_to_produce) from brining-plan-cluster where product_id in ('pr_59a6d117e3836') and ck_id='ck_001' and production_date='2018-10-11'"</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"https://plan-es1.licious.app/_sql?sql="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>+URLEncoder.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>encode</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <color rgb="FF3933FF"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>"select sum(quantity_to_produce) from brining-plan-cluster where product_id in ('pr_id9jj8pq34w') and ck_id='ck_001' and production_date='2018-10-11'"</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"https://plan-es1.licious.app/_sql?sql="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>+URLEncoder.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>encode</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <color rgb="FF3933FF"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>"select sum(quantity_to_produce) from brining-plan-cluster where product_id in ('pr_ov2jkm8fgq3') and ck_id='ck_001' and production_date='2018-10-11'"</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>https://plan-es1.licious.app/_sql?sql="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>+URLEncoder.encode</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <color rgb="FF3933FF"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>"select sum(quantity_to_produce) from production-plan-cluster where product_id in ('pr_3rkjm1v51mm') and ck_id='ck_001' and production_date='2018-10-11'</t>
+    </r>
+  </si>
+  <si>
+    <t>https://plan-es1.licious.app/_sql?sql="+URLEncoder.encode("select sum(quantity_to_produce) from production-plan-cluster where product_id in ('pr_8izjlf6xn0k') and ck_id='ck_001' and production_date='2018-10-11'</t>
+  </si>
+  <si>
+    <t>"https://plan-es1.licious.app/_sql?sql="+URLEncoder.encode("select sum(quantity_to_produce) from production-plan-cluster where product_id in ('pr_8izjlf6xn0k') and ck_id='ck_001' and production_date='2018-10-11'"),</t>
+  </si>
+  <si>
+    <r>
+      <t>"https://plan-es1.licious.app/_sql?sql="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>+URLEncoder.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>encode</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <color rgb="FF3933FF"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>"select sum(quantity_to_produce) from production-plan-cluster where product_id in ('pr_8izjlf6xn0k') and ck_id='ck_001' and production_date='2018-10-11'"</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>https://plan-es1.licious.app/_sql?sql="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>+URLEncoder.encode</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <color rgb="FF3933FF"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>"select sum(quantity_to_produce) from production-plan-cluster where product_id in ('pr_8izjlf6xn0k') and ck_id='ck_001' and production_date='2018-10-11'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>https://plan-es1.licious.app/_sql?sql="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>+URLEncoder.encode</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <color rgb="FF3933FF"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>"select sum(quantity_to_produce) from brining-plan-cluster where product_id in ('pr_785jd3c1us3') and ck_id='ck_001' and production_date='2018-10-11'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>https://plan-es1.licious.app/_sql?sql="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>+URLEncoder.encode</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <color rgb="FF3933FF"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>"select sum(quantity_to_produce) from brining-plan-cluster where product_id in ('pr_ntcjmw1avau') and ck_id='ck_001' and production_date='2018-10-11'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>https://plan-es1.licious.app/_sql?sql="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>+URLEncoder.encode</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <color rgb="FF3933FF"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>"select sum(quantity_to_produce) from brining-plan-cluster where product_id in ('pr_59a6d117e3836') and ck_id='ck_001' and production_date='2018-10-11'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>https://plan-es1.licious.app/_sql?sql="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>+URLEncoder.encode</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <color rgb="FF3933FF"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>"select sum(quantity_to_produce) from brining-plan-cluster where product_id in ('pr_id9jj8pq34w') and ck_id='ck_001' and production_date='2018-10-11'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>https://plan-es1.licious.app/_sql?sql="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>+URLEncoder.encode</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <color rgb="FF3933FF"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>"select sum(quantity_to_produce) from brining-plan-cluster where product_id in ('pr_ov2jkm8fgq3') and ck_id='ck_001' and production_date='2018-10-11'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>https://plan-es1.licious.app/_sql?sql=</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <color rgb="FF3933FF"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>select sum(quantity_to_produce) from production-plan-cluster where product_id in ('pr_3rkjm1v51mm') and ck_id='ck_001' and production_date='2018-10-11'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <color rgb="FF3933FF"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>select sum(quantity_to_produce) from production-plan-cluster where product_id in ('pr_3rkjm1v51mm') and ck_id='ck_001' and production_date='2018-10-11'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <color rgb="FF3933FF"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>select sum(quantity_to_produce) from production-plan-cluster where product_id in ('pr_8izjlf6xn0k') and ck_id='ck_001' and production_date='2018-10-11'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <color rgb="FF3933FF"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>select sum(quantity_to_produce) from brining-plan-cluster where product_id in ('pr_785jd3c1us3') and ck_id='ck_001' and production_date='2018-10-11'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <color rgb="FF3933FF"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>select sum(quantity_to_produce) from brining-plan-cluster where product_id in ('pr_ntcjmw1avau') and ck_id='ck_001' and production_date='2018-10-11'	</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <color rgb="FF3933FF"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>select sum(quantity_to_produce) from brining-plan-cluster where product_id in ('pr_59a6d117e3836') and ck_id='ck_001' and production_date='2018-10-11'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <color rgb="FF3933FF"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>select sum(quantity_to_produce) from brining-plan-cluster where product_id in ('pr_id9jj8pq34w') and ck_id='ck_001' and production_date='2018-10-11'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <color rgb="FF3933FF"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>select sum(quantity_to_produce) from brining-plan-cluster where product_id in ('pr_ov2jkm8fgq3') and ck_id='ck_001' and production_date='2018-10-11'</t>
+    </r>
+  </si>
+  <si>
+    <t>Text(A14)</t>
+  </si>
+  <si>
+    <t>abcd</t>
+  </si>
+  <si>
+    <t>400</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>net</t>
+  </si>
+  <si>
+    <t>=text(A2,"0")</t>
+  </si>
+  <si>
+    <t>=TEXT(A2,"0")</t>
+  </si>
+  <si>
+    <t>250</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <color rgb="FF3933FF"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>select sum(quantity_to_produce) from brining-plan-cluster where product_id in ('pr_785jd3c1us3') and ck_id='ck_001' and production_date='2018-10-11'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <color rgb="FF3933FF"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>select sum(quantity_to_produce) from brining-plan-cluster where product_id in ('pr_ntcjmw1avau') and ck_id='ck_001' and production_date='2018-10-11'	</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <color rgb="FF3933FF"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>select sum(quantity_to_produce) from brining-plan-cluster where product_id in ('pr_59a6d117e3836') and ck_id='ck_001' and production_date='2018-10-11'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <color rgb="FF3933FF"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>select sum(quantity_to_produce) from brining-plan-cluster where product_id in ('pr_id9jj8pq34w') and ck_id='ck_001' and production_date='2018-10-11'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <color rgb="FF3933FF"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>select sum(quantity_to_produce) from production-plan-cluster where product_id in ('pr_3rkjm1v51mm') and ck_id='ck_001' and production_date='2018-10-11'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <color rgb="FF3933FF"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>select sum(quantity_to_produce) from production-plan-cluster where product_id in ('pr_8izjlf6xn0k') and ck_id='ck_001' and production_date='2018-10-11'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <color rgb="FF3933FF"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>select sum(quantity_to_produce) from brining-plan-cluster where product_id in ('pr_ov2jkm8fgq3') and ck_id='ck_001' and production_date='2018-10-11'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <color rgb="FF3933FF"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>select sum(quantity_to_produce) from brining-plan-cluster where product_id in ('pr_785jd3c1us3') and ck_id='ck_001' and production_date='2018-10-11'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <color rgb="FF3933FF"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>select sum(quantity_to_produce) from brining-plan-cluster where product_id in ('pr_ntcjmw1avau') and ck_id='ck_001' and production_date='2018-10-11'	</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <color rgb="FF3933FF"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>select sum(quantity_to_produce) from brining-plan-cluster where product_id in ('pr_59a6d117e3836') and ck_id='ck_001' and production_date='2018-10-11'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <color rgb="FF3933FF"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>select sum(quantity_to_produce) from brining-plan-cluster where product_id in ('pr_id9jj8pq34w') and ck_id='ck_001' and production_date='2018-10-11'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <color rgb="FF3933FF"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>select sum(quantity_to_produce) from production-plan-cluster where product_id in ('pr_3rkjm1v51mm') and ck_id='ck_001' and production_date='2018-10-11'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <color rgb="FF3933FF"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>select sum(quantity_to_produce) from production-plan-cluster where product_id in ('pr_8izjlf6xn0k') and ck_id='ck_001' and production_date='2018-10-11'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <color rgb="FF3933FF"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>select sum(quantity_to_produce) from brining-plan-cluster where product_id in ('pr_ov2jkm8fgq3') and ck_id='ck_001' and production_date='2018-10-11'</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="20">
+  <numFmts count="1">
+    <numFmt numFmtId="64" formatCode="@"/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="11.0"/>
       <name val="Times New Roman"/>
@@ -245,6 +1141,39 @@
       <name val="Times New Roman"/>
       <color rgb="FF7F7F7F"/>
     </font>
+    <font>
+      <sz val="9.0"/>
+      <name val="Times New Roman"/>
+      <color rgb="FF3933FF"/>
+    </font>
+    <font>
+      <sz val="9.0"/>
+      <name val="Times New Roman"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="9.0"/>
+      <name val="Times New Roman"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="9.0"/>
+      <name val="Times New Roman"/>
+      <color rgb="FF3933FF"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="9.0"/>
+      <name val="Times New Roman"/>
+      <color theme="10"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="Times New Roman"/>
+      <color rgb="FF000000"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -258,156 +1187,187 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599990"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599990"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599990"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599990"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599990"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599990"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -417,7 +1377,9 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -432,33 +1394,25 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="thick">
         <color theme="4"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="thick">
         <color rgb="FFACCCEA"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="medium">
         <color theme="4" tint="0.399980"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -473,9 +1427,7 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -490,9 +1442,7 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="double">
@@ -507,17 +1457,13 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <top style="thin">
@@ -526,9 +1472,7 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
@@ -582,8 +1526,44 @@
     <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="64" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="64" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="64" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="64" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="64" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="64" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="64" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="64" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="64" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -905,417 +1885,430 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P8"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+    <sheetView zoomScale="140" workbookViewId="0">
+      <selection activeCell="W32" sqref="W32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.000000"/>
   <cols>
-    <col min="5" max="5" width="14.57642828" customWidth="1" outlineLevel="0"/>
-    <col min="10" max="10" width="17.86214338" customWidth="1" outlineLevel="0"/>
-    <col min="14" max="14" width="34.14785658" customWidth="1" outlineLevel="0"/>
+    <col min="1" max="1" style="5" width="9.14785753" customWidth="1" outlineLevel="0"/>
+    <col min="2" max="2" style="4" width="9.29071413" customWidth="1" outlineLevel="0"/>
+    <col min="3" max="4" style="4" width="9.14785753" customWidth="1" outlineLevel="0"/>
+    <col min="5" max="5" style="4" width="14.57642828" customWidth="1" outlineLevel="0"/>
+    <col min="6" max="9" style="4" width="9.14785753" customWidth="1" outlineLevel="0"/>
+    <col min="10" max="10" style="4" width="17.86214338" customWidth="1" outlineLevel="0"/>
+    <col min="11" max="13" style="4" width="9.14785753" customWidth="1" outlineLevel="0"/>
+    <col min="14" max="14" style="4" width="34.14785658" customWidth="1" outlineLevel="0"/>
+    <col min="15" max="16383" style="4" width="9.14785753" customWidth="1" outlineLevel="0"/>
+    <col min="16384" max="16384" style="4" width="9.14785753" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="N1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="O1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="P1" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="0">
-        <v>400</v>
-      </c>
-      <c r="B2" s="0">
+      <c r="A2" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="4">
         <v>3</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="0">
+      <c r="D2" s="4">
         <v>2</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="0">
+      <c r="F2" s="4">
         <v>2</v>
       </c>
-      <c r="G2" s="0">
+      <c r="G2" s="4">
         <v>10</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="H2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="0" t="s">
+      <c r="I2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="0" t="s">
+      <c r="J2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="0" t="s">
+      <c r="K2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="0">
-        <v>32</v>
-      </c>
-      <c r="M2" s="0">
+      <c r="L2" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="M2" s="4">
         <v>4</v>
       </c>
-      <c r="N2" s="0" t="s">
+      <c r="N2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="O2" s="0" t="s">
+      <c r="O2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="P2" s="0">
+      <c r="P2" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="0">
-        <v>250</v>
-      </c>
-      <c r="B3" s="0">
+      <c r="A3" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="4">
         <v>3</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="0">
+      <c r="D3" s="4">
         <v>2</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="0">
+      <c r="F3" s="4">
         <v>2</v>
       </c>
-      <c r="G3" s="0">
+      <c r="G3" s="4">
         <v>10</v>
       </c>
-      <c r="H3" s="0" t="s">
+      <c r="H3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="0" t="s">
+      <c r="I3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="0" t="s">
+      <c r="J3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="0" t="s">
+      <c r="K3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="L3" s="0">
-        <v>20</v>
-      </c>
-      <c r="M3" s="0">
+      <c r="L3" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="M3" s="4">
         <v>4</v>
       </c>
-      <c r="N3" s="0" t="s">
+      <c r="N3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="O3" s="0" t="s">
+      <c r="O3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="P3" s="0">
+      <c r="P3" s="4">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="0">
-        <v>400</v>
-      </c>
-      <c r="B4" s="0">
+      <c r="A4" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="4">
         <v>3</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="0">
+      <c r="D4" s="4">
         <v>2</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="0">
+      <c r="F4" s="4">
         <v>2</v>
       </c>
-      <c r="G4" s="0">
+      <c r="G4" s="4">
         <v>10</v>
       </c>
-      <c r="H4" s="0" t="s">
+      <c r="H4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="0" t="s">
+      <c r="I4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="0" t="s">
+      <c r="J4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="K4" s="0" t="s">
+      <c r="K4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="L4" s="0">
-        <v>32</v>
-      </c>
-      <c r="M4" s="0">
+      <c r="L4" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="M4" s="4">
         <v>4</v>
       </c>
-      <c r="N4" s="0" t="s">
+      <c r="N4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="O4" s="0" t="s">
+      <c r="O4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="P4" s="0">
+      <c r="P4" s="4">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="0">
-        <v>400</v>
-      </c>
-      <c r="B5" s="0">
+      <c r="A5" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="4">
         <v>3</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="0">
+      <c r="D5" s="4">
         <v>2</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="0">
+      <c r="F5" s="4">
         <v>2</v>
       </c>
-      <c r="G5" s="0">
+      <c r="G5" s="4">
         <v>10</v>
       </c>
-      <c r="H5" s="0" t="s">
+      <c r="H5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="0" t="s">
+      <c r="I5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="0" t="s">
+      <c r="J5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="K5" s="0" t="s">
+      <c r="K5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="L5" s="0">
-        <v>32</v>
-      </c>
-      <c r="M5" s="0">
+      <c r="L5" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="M5" s="4">
         <v>4</v>
       </c>
-      <c r="N5" s="0" t="s">
+      <c r="N5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O5" s="0" t="s">
+      <c r="O5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="P5" s="0">
+      <c r="P5" s="4">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="0">
-        <v>400</v>
-      </c>
-      <c r="B6" s="0">
+      <c r="A6" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="4">
         <v>3</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="0">
+      <c r="D6" s="4">
         <v>2</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="E6" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="0">
+      <c r="F6" s="4">
         <v>2</v>
       </c>
-      <c r="G6" s="0">
+      <c r="G6" s="4">
         <v>10</v>
       </c>
-      <c r="H6" s="0" t="s">
+      <c r="H6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I6" s="0" t="s">
+      <c r="I6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="0" t="s">
+      <c r="J6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K6" s="0" t="s">
+      <c r="K6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="L6" s="0">
+      <c r="L6" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="M6" s="4">
+        <v>3</v>
+      </c>
+      <c r="N6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="M6" s="0">
-        <v>3</v>
-      </c>
-      <c r="N6" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="O6" s="0" t="s">
+      <c r="O6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="P6" s="0">
+      <c r="P6" s="4">
         <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="0">
-        <v>500</v>
-      </c>
-      <c r="B7" s="0">
+      <c r="A7" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" s="4">
         <v>3</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="0">
+      <c r="D7" s="4">
         <v>2</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="E7" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="0">
+      <c r="F7" s="4">
         <v>2</v>
       </c>
-      <c r="G7" s="0">
+      <c r="G7" s="4">
         <v>10</v>
       </c>
-      <c r="H7" s="0" t="s">
+      <c r="H7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="0" t="s">
+      <c r="I7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="0" t="s">
+      <c r="J7" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="K7" s="0" t="s">
+      <c r="K7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="L7" s="0">
-        <v>32</v>
-      </c>
-      <c r="M7" s="0">
+      <c r="L7" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="M7" s="4">
         <v>3</v>
       </c>
-      <c r="N7" s="0" t="s">
+      <c r="N7" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="O7" s="0" t="s">
+      <c r="O7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="P7" s="0">
+      <c r="P7" s="4">
         <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="0">
-        <v>300</v>
-      </c>
-      <c r="B8" s="0">
+      <c r="A8" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" s="4">
         <v>3</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="0">
+      <c r="D8" s="4">
         <v>2</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="E8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="0">
+      <c r="F8" s="4">
         <v>2</v>
       </c>
-      <c r="G8" s="0">
+      <c r="G8" s="4">
         <v>10</v>
       </c>
-      <c r="H8" s="0" t="s">
+      <c r="H8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="0" t="s">
+      <c r="I8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="0" t="s">
+      <c r="J8" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="K8" s="0" t="s">
+      <c r="K8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="L8" s="0">
-        <v>75</v>
-      </c>
-      <c r="M8" s="0">
+      <c r="L8" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="M8" s="4">
         <v>4</v>
       </c>
-      <c r="N8" s="0" t="s">
+      <c r="N8" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="O8" s="0" t="s">
+      <c r="O8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="P8" s="0">
+      <c r="P8" s="4">
         <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="B14" s="4" t="str">
+        <f>TEXT(A14,)</f>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -1327,15 +2320,68 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" zoomScale="180" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.000000"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="167.71929060" customWidth="1" outlineLevel="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink r:id="rId0" ref="A2"/>
+    <hyperlink r:id="rId1" ref="A3"/>
+    <hyperlink r:id="rId2" ref="A4"/>
+    <hyperlink r:id="rId3" ref="A5"/>
+    <hyperlink r:id="rId4" ref="A7"/>
+    <hyperlink r:id="rId5" ref="A6"/>
+    <hyperlink r:id="rId6" ref="A8"/>
+  </hyperlinks>
   <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
